--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>42.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>42.85</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +632,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005331</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>益民优势安享灵活配置混合</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -632,15 +680,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -650,26 +708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +746,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000410</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>益民服务领先灵活配置混合</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +784,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +822,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002249</t>
+          <t>009696</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商境远灵活配置混合</t>
+          <t>招商成长精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.98</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +860,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161727</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>58.88</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +898,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>000410</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>益民服务领先灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +936,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>005331</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>益民优势安享灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +974,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -874,25 +1012,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009696</t>
+          <t>161727</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合C</t>
+          <t>招商增荣灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1047,4 +1048,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1332,4 +1333,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1465,4 +1466,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -1490,12 +1490,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,127 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -584,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5373</t>
+          <t>0.2833</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -673,378 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217009</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商核心价值混合</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>88.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4287</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009695</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3109</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>66.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1688</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002249</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商境远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1597</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0819</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000410</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>益民服务领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005331</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>益民优势安享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>58.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,26 +1031,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>84.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2833</t>
+          <t>0.5373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1431,36 +1059,378 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>002249</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>招商境远灵活配置混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1474,96 +1444,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -964,7 +1151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/003012-东鹏控股.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,7 +978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1151,7 +1262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +1736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
